--- a/MXB103StatementOfContributionTemplate.xlsx
+++ b/MXB103StatementOfContributionTemplate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chong\Dropbox\Assignments\B.IT Semester 3\MXB103_Assignment\MXB103Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\MXB103-Assignment-master\MXB103-Assignment-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,9 +48,6 @@
     <t xml:space="preserve">Numerical solution: i, ii, Analysis: 1, 2  </t>
   </si>
   <si>
-    <t>Analysis: 3,4</t>
-  </si>
-  <si>
     <t>We attempted to contact Luc Saint Clair through QUT e-mail (twice), and Facebook but no response.</t>
   </si>
   <si>
@@ -58,17 +55,21 @@
   </si>
   <si>
     <t>Completed nothing, supposedly Analysis: 5, 6</t>
+  </si>
+  <si>
+    <t>Analysis: 3,4, Report</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -76,14 +77,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -91,8 +92,15 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -199,7 +207,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -215,7 +223,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -538,17 +546,17 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" customWidth="1"/>
+    <col min="1" max="1" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.09765625" customWidth="1"/>
+    <col min="3" max="3" width="35.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.65">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -556,7 +564,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -567,7 +575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -578,7 +586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -586,10 +594,10 @@
         <v>0.5</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -597,25 +605,26 @@
         <v>0</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -629,8 +638,9 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -641,8 +651,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>